--- a/biology/Zoologie/Callulops/Callulops.xlsx
+++ b/biology/Zoologie/Callulops/Callulops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callulops est un genre  d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callulops est un genre  d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 24 espèces de ce genre se rencontrent en Nouvelle-Guinée et dans les Moluques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 24 espèces de ce genre se rencontrent en Nouvelle-Guinée et dans les Moluques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (22 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 mars 2020) :
 Callulops argus Kraus, 2019
 Callulops biakensis Günther, Stelbrink &amp; von Rintelen, 2012
 Callulops bicolor Kraus, 2019
@@ -601,7 +617,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1910 : A new genus of Amphibia Salientia from Dutch New Guinea. Proceedings of the Biological Society of Washington, vol. 23, p. 89-90 (texte intégral).
 Boulenger, 1888 : Descriptions of new Reptiles and Batrachians obtained by Mr. H. O. Forbes in New Guinea. Annals and Magazine of Natural History, sér. 6, vol. 1, no 6, p. 343-346 (texte intégral).
